--- a/REGULAR/CPDO/BAYOT, EMILIANA.xlsx
+++ b/REGULAR/CPDO/BAYOT, EMILIANA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="370">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1105,6 +1105,45 @@
   </si>
   <si>
     <t>UT(0-1-11)</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>12/2,12,13/2022</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>A(7-0-0)</t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>6/3,28/2022</t>
+  </si>
+  <si>
+    <t>7/7,12,15,20-22,29/2022</t>
+  </si>
+  <si>
+    <t>A(4-0-0)</t>
+  </si>
+  <si>
+    <t>5/10,16,20,27/2022</t>
+  </si>
+  <si>
+    <t>4/1,5,13,25/2022</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>CPDO</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +2015,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2019,7 +2058,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2083,7 +2122,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,7 +2182,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2209,7 +2248,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2272,7 +2311,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2370,7 +2409,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2429,7 +2468,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2494,7 +2533,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2537,7 +2576,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2612,7 +2651,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2837,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2864,7 +2903,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2922,7 +2961,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2988,7 +3027,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3044,7 +3083,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3119,7 +3158,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3162,7 +3201,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3228,7 +3267,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3284,7 +3323,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3382,7 +3421,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3445,7 +3484,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3511,7 +3550,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K558" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K562" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3889,12 +3928,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K558"/>
+  <dimension ref="A2:K562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800" topLeftCell="A483" activePane="bottomLeft"/>
-      <selection activeCell="I4" sqref="I4"/>
-      <selection pane="bottomLeft" activeCell="E496" sqref="E496"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A483"/>
+      <selection activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="B501" sqref="B501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3955,12 +3994,16 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="53" t="s">
+        <v>368</v>
+      </c>
       <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="58"/>
+      <c r="F4" s="58" t="s">
+        <v>369</v>
+      </c>
       <c r="G4" s="58"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -4051,7 +4094,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>67.835000000000207</v>
+        <v>44.790000000000248</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -14601,11 +14644,15 @@
       <c r="A488" s="40">
         <v>44621</v>
       </c>
-      <c r="B488" s="20"/>
+      <c r="B488" s="20" t="s">
+        <v>359</v>
+      </c>
       <c r="C488" s="13">
         <v>1.25</v>
       </c>
-      <c r="D488" s="39"/>
+      <c r="D488" s="39">
+        <v>1</v>
+      </c>
       <c r="E488" s="9"/>
       <c r="F488" s="20"/>
       <c r="G488" s="13">
@@ -14615,17 +14662,23 @@
       <c r="H488" s="39"/>
       <c r="I488" s="9"/>
       <c r="J488" s="11"/>
-      <c r="K488" s="20"/>
+      <c r="K488" s="49">
+        <v>44638</v>
+      </c>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>44652</v>
       </c>
-      <c r="B489" s="20"/>
+      <c r="B489" s="20" t="s">
+        <v>364</v>
+      </c>
       <c r="C489" s="13">
         <v>1.25</v>
       </c>
-      <c r="D489" s="39"/>
+      <c r="D489" s="39">
+        <v>4</v>
+      </c>
       <c r="E489" s="9"/>
       <c r="F489" s="20"/>
       <c r="G489" s="13">
@@ -14635,17 +14688,23 @@
       <c r="H489" s="39"/>
       <c r="I489" s="9"/>
       <c r="J489" s="11"/>
-      <c r="K489" s="20"/>
+      <c r="K489" s="20" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>44682</v>
       </c>
-      <c r="B490" s="20"/>
+      <c r="B490" s="20" t="s">
+        <v>364</v>
+      </c>
       <c r="C490" s="13">
         <v>1.25</v>
       </c>
-      <c r="D490" s="39"/>
+      <c r="D490" s="39">
+        <v>4</v>
+      </c>
       <c r="E490" s="9"/>
       <c r="F490" s="20"/>
       <c r="G490" s="13">
@@ -14655,17 +14714,23 @@
       <c r="H490" s="39"/>
       <c r="I490" s="9"/>
       <c r="J490" s="11"/>
-      <c r="K490" s="20"/>
+      <c r="K490" s="20" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>44713</v>
       </c>
-      <c r="B491" s="20"/>
+      <c r="B491" s="20" t="s">
+        <v>361</v>
+      </c>
       <c r="C491" s="13">
         <v>1.25</v>
       </c>
-      <c r="D491" s="39"/>
+      <c r="D491" s="39">
+        <v>2</v>
+      </c>
       <c r="E491" s="9"/>
       <c r="F491" s="20"/>
       <c r="G491" s="13">
@@ -14675,22 +14740,24 @@
       <c r="H491" s="39"/>
       <c r="I491" s="9"/>
       <c r="J491" s="11"/>
-      <c r="K491" s="20"/>
+      <c r="K491" s="20" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A492" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B492" s="20"/>
-      <c r="C492" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D492" s="39"/>
+      <c r="A492" s="40"/>
+      <c r="B492" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C492" s="13"/>
+      <c r="D492" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E492" s="9"/>
       <c r="F492" s="20"/>
-      <c r="G492" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G492" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H492" s="39"/>
       <c r="I492" s="9"/>
@@ -14699,13 +14766,17 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B493" s="20"/>
+        <v>44743</v>
+      </c>
+      <c r="B493" s="20" t="s">
+        <v>360</v>
+      </c>
       <c r="C493" s="13">
         <v>1.25</v>
       </c>
-      <c r="D493" s="39"/>
+      <c r="D493" s="39">
+        <v>7</v>
+      </c>
       <c r="E493" s="9"/>
       <c r="F493" s="20"/>
       <c r="G493" s="13">
@@ -14715,22 +14786,24 @@
       <c r="H493" s="39"/>
       <c r="I493" s="9"/>
       <c r="J493" s="11"/>
-      <c r="K493" s="20"/>
+      <c r="K493" s="20" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A494" s="40">
-        <v>44805</v>
-      </c>
-      <c r="B494" s="20"/>
-      <c r="C494" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D494" s="39"/>
+      <c r="A494" s="40"/>
+      <c r="B494" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C494" s="13"/>
+      <c r="D494" s="39">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="E494" s="9"/>
       <c r="F494" s="20"/>
-      <c r="G494" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G494" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H494" s="39"/>
       <c r="I494" s="9"/>
@@ -14739,13 +14812,17 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
-        <v>44835</v>
-      </c>
-      <c r="B495" s="20"/>
+        <v>44774</v>
+      </c>
+      <c r="B495" s="20" t="s">
+        <v>359</v>
+      </c>
       <c r="C495" s="13">
         <v>1.25</v>
       </c>
-      <c r="D495" s="39"/>
+      <c r="D495" s="39">
+        <v>1</v>
+      </c>
       <c r="E495" s="9"/>
       <c r="F495" s="20"/>
       <c r="G495" s="13">
@@ -14755,44 +14832,42 @@
       <c r="H495" s="39"/>
       <c r="I495" s="9"/>
       <c r="J495" s="11"/>
-      <c r="K495" s="20"/>
+      <c r="K495" s="49">
+        <v>44778</v>
+      </c>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A496" s="40">
-        <v>44866</v>
-      </c>
+      <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="C496" s="13">
-        <v>1.25</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C496" s="13"/>
       <c r="D496" s="39">
-        <v>0.14800000000000002</v>
+        <v>3.1000000000000014E-2</v>
       </c>
       <c r="E496" s="9"/>
       <c r="F496" s="20"/>
-      <c r="G496" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G496" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H496" s="39"/>
       <c r="I496" s="9"/>
       <c r="J496" s="11"/>
-      <c r="K496" s="20"/>
+      <c r="K496" s="49"/>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
-        <v>44896</v>
+        <v>44805</v>
       </c>
       <c r="B497" s="20" t="s">
-        <v>86</v>
+        <v>359</v>
       </c>
       <c r="C497" s="13">
         <v>1.25</v>
       </c>
       <c r="D497" s="39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E497" s="9"/>
       <c r="F497" s="20"/>
@@ -14803,22 +14878,24 @@
       <c r="H497" s="39"/>
       <c r="I497" s="9"/>
       <c r="J497" s="11"/>
-      <c r="K497" s="20"/>
+      <c r="K497" s="49">
+        <v>44811</v>
+      </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A498" s="40"/>
-      <c r="B498" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="C498" s="13"/>
-      <c r="D498" s="39">
-        <v>0.13300000000000001</v>
-      </c>
+      <c r="A498" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B498" s="20"/>
+      <c r="C498" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D498" s="39"/>
       <c r="E498" s="9"/>
       <c r="F498" s="20"/>
-      <c r="G498" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G498" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H498" s="39"/>
       <c r="I498" s="9"/>
@@ -14826,17 +14903,23 @@
       <c r="K498" s="20"/>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A499" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B499" s="20"/>
-      <c r="C499" s="13"/>
-      <c r="D499" s="39"/>
+      <c r="A499" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B499" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="C499" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D499" s="39">
+        <v>0.14800000000000002</v>
+      </c>
       <c r="E499" s="9"/>
       <c r="F499" s="20"/>
-      <c r="G499" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G499" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H499" s="39"/>
       <c r="I499" s="9"/>
@@ -14845,7 +14928,7 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B500" s="20" t="s">
         <v>86</v>
@@ -14865,17 +14948,17 @@
       <c r="H500" s="39"/>
       <c r="I500" s="9"/>
       <c r="J500" s="11"/>
-      <c r="K500" s="20" t="s">
-        <v>93</v>
-      </c>
+      <c r="K500" s="20"/>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
-        <v>82</v>
+        <v>357</v>
       </c>
       <c r="C501" s="13"/>
-      <c r="D501" s="39"/>
+      <c r="D501" s="39">
+        <v>3</v>
+      </c>
       <c r="E501" s="9"/>
       <c r="F501" s="20"/>
       <c r="G501" s="13" t="str">
@@ -14885,24 +14968,24 @@
       <c r="H501" s="39"/>
       <c r="I501" s="9"/>
       <c r="J501" s="11"/>
-      <c r="K501" s="49">
-        <v>44931</v>
+      <c r="K501" s="20" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A502" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B502" s="20"/>
-      <c r="C502" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D502" s="39"/>
+      <c r="A502" s="40"/>
+      <c r="B502" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="C502" s="13"/>
+      <c r="D502" s="39">
+        <v>0.13300000000000001</v>
+      </c>
       <c r="E502" s="9"/>
       <c r="F502" s="20"/>
-      <c r="G502" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G502" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H502" s="39"/>
       <c r="I502" s="9"/>
@@ -14910,19 +14993,17 @@
       <c r="K502" s="20"/>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A503" s="40">
-        <v>44986</v>
+      <c r="A503" s="47" t="s">
+        <v>92</v>
       </c>
       <c r="B503" s="20"/>
-      <c r="C503" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C503" s="13"/>
       <c r="D503" s="39"/>
       <c r="E503" s="9"/>
       <c r="F503" s="20"/>
-      <c r="G503" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G503" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H503" s="39"/>
       <c r="I503" s="9"/>
@@ -14931,13 +15012,17 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B504" s="20"/>
+        <v>44927</v>
+      </c>
+      <c r="B504" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="C504" s="13">
         <v>1.25</v>
       </c>
-      <c r="D504" s="39"/>
+      <c r="D504" s="39">
+        <v>5</v>
+      </c>
       <c r="E504" s="9"/>
       <c r="F504" s="20"/>
       <c r="G504" s="13">
@@ -14947,35 +15032,35 @@
       <c r="H504" s="39"/>
       <c r="I504" s="9"/>
       <c r="J504" s="11"/>
-      <c r="K504" s="20"/>
+      <c r="K504" s="20" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A505" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B505" s="20"/>
-      <c r="C505" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A505" s="40"/>
+      <c r="B505" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C505" s="13"/>
       <c r="D505" s="39"/>
       <c r="E505" s="9"/>
       <c r="F505" s="20"/>
-      <c r="G505" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G505" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H505" s="39"/>
       <c r="I505" s="9"/>
       <c r="J505" s="11"/>
-      <c r="K505" s="20"/>
+      <c r="K505" s="49">
+        <v>44931</v>
+      </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B506" s="20" t="s">
-        <v>118</v>
-      </c>
+        <v>44958</v>
+      </c>
+      <c r="B506" s="20"/>
       <c r="C506" s="13">
         <v>1.25</v>
       </c>
@@ -14988,47 +15073,43 @@
       </c>
       <c r="H506" s="39"/>
       <c r="I506" s="9"/>
-      <c r="J506" s="11">
-        <v>2</v>
-      </c>
-      <c r="K506" s="20" t="s">
-        <v>355</v>
-      </c>
+      <c r="J506" s="11"/>
+      <c r="K506" s="20"/>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A507" s="40"/>
-      <c r="B507" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C507" s="13"/>
+      <c r="A507" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B507" s="20"/>
+      <c r="C507" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D507" s="39"/>
       <c r="E507" s="9"/>
       <c r="F507" s="20"/>
-      <c r="G507" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H507" s="39">
-        <v>1</v>
-      </c>
+      <c r="G507" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H507" s="39"/>
       <c r="I507" s="9"/>
       <c r="J507" s="11"/>
-      <c r="K507" s="49">
-        <v>45106</v>
-      </c>
+      <c r="K507" s="20"/>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>45108</v>
+        <v>45017</v>
       </c>
       <c r="B508" s="20"/>
-      <c r="C508" s="13"/>
+      <c r="C508" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D508" s="39"/>
       <c r="E508" s="9"/>
       <c r="F508" s="20"/>
-      <c r="G508" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G508" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H508" s="39"/>
       <c r="I508" s="9"/>
@@ -15037,16 +15118,18 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>45139</v>
+        <v>45047</v>
       </c>
       <c r="B509" s="20"/>
-      <c r="C509" s="13"/>
+      <c r="C509" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D509" s="39"/>
       <c r="E509" s="9"/>
       <c r="F509" s="20"/>
-      <c r="G509" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G509" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H509" s="39"/>
       <c r="I509" s="9"/>
@@ -15055,27 +15138,35 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B510" s="20"/>
-      <c r="C510" s="13"/>
+        <v>45078</v>
+      </c>
+      <c r="B510" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C510" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D510" s="39"/>
       <c r="E510" s="9"/>
       <c r="F510" s="20"/>
-      <c r="G510" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G510" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H510" s="39"/>
       <c r="I510" s="9"/>
-      <c r="J510" s="11"/>
-      <c r="K510" s="20"/>
+      <c r="J510" s="11">
+        <v>2</v>
+      </c>
+      <c r="K510" s="20" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A511" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B511" s="20"/>
+      <c r="A511" s="40"/>
+      <c r="B511" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="C511" s="13"/>
       <c r="D511" s="39"/>
       <c r="E511" s="9"/>
@@ -15084,14 +15175,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H511" s="39"/>
+      <c r="H511" s="39">
+        <v>1</v>
+      </c>
       <c r="I511" s="9"/>
       <c r="J511" s="11"/>
-      <c r="K511" s="20"/>
+      <c r="K511" s="49">
+        <v>45106</v>
+      </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>45231</v>
+        <v>45108</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -15109,7 +15204,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
-        <v>45261</v>
+        <v>45139</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -15127,7 +15222,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
-        <v>45292</v>
+        <v>45170</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -15145,7 +15240,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>45323</v>
+        <v>45200</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -15163,7 +15258,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>45352</v>
+        <v>45231</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -15181,7 +15276,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>45383</v>
+        <v>45261</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -15199,7 +15294,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>45413</v>
+        <v>45292</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -15217,7 +15312,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>45444</v>
+        <v>45323</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15235,7 +15330,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>45474</v>
+        <v>45352</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -15253,7 +15348,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>45505</v>
+        <v>45383</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -15271,7 +15366,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>45536</v>
+        <v>45413</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -15289,7 +15384,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>45566</v>
+        <v>45444</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15307,7 +15402,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>45597</v>
+        <v>45474</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -15325,7 +15420,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>45627</v>
+        <v>45505</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15343,7 +15438,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>45658</v>
+        <v>45536</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15361,7 +15456,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>45689</v>
+        <v>45566</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15379,7 +15474,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45717</v>
+        <v>45597</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -15397,7 +15492,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>45748</v>
+        <v>45627</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -15415,7 +15510,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>45778</v>
+        <v>45658</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15433,7 +15528,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45809</v>
+        <v>45689</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -15451,7 +15546,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>45839</v>
+        <v>45717</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -15469,7 +15564,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>45870</v>
+        <v>45748</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -15487,7 +15582,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>45901</v>
+        <v>45778</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -15505,7 +15600,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>45931</v>
+        <v>45809</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -15523,7 +15618,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>45962</v>
+        <v>45839</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -15541,25 +15636,25 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>45992</v>
-      </c>
-      <c r="B537" s="15"/>
-      <c r="C537" s="41"/>
-      <c r="D537" s="42"/>
+        <v>45870</v>
+      </c>
+      <c r="B537" s="20"/>
+      <c r="C537" s="13"/>
+      <c r="D537" s="39"/>
       <c r="E537" s="9"/>
-      <c r="F537" s="15"/>
-      <c r="G537" s="41" t="str">
+      <c r="F537" s="20"/>
+      <c r="G537" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H537" s="42"/>
+      <c r="H537" s="39"/>
       <c r="I537" s="9"/>
-      <c r="J537" s="12"/>
-      <c r="K537" s="15"/>
+      <c r="J537" s="11"/>
+      <c r="K537" s="20"/>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>46023</v>
+        <v>45901</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -15577,7 +15672,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>46054</v>
+        <v>45931</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -15595,7 +15690,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>46082</v>
+        <v>45962</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15613,25 +15708,25 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>46113</v>
-      </c>
-      <c r="B541" s="20"/>
-      <c r="C541" s="13"/>
-      <c r="D541" s="39"/>
+        <v>45992</v>
+      </c>
+      <c r="B541" s="15"/>
+      <c r="C541" s="41"/>
+      <c r="D541" s="42"/>
       <c r="E541" s="9"/>
-      <c r="F541" s="20"/>
-      <c r="G541" s="13" t="str">
+      <c r="F541" s="15"/>
+      <c r="G541" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H541" s="39"/>
+      <c r="H541" s="42"/>
       <c r="I541" s="9"/>
-      <c r="J541" s="11"/>
-      <c r="K541" s="20"/>
+      <c r="J541" s="12"/>
+      <c r="K541" s="15"/>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>46143</v>
+        <v>46023</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -15649,7 +15744,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>46174</v>
+        <v>46054</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -15667,7 +15762,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>46204</v>
+        <v>46082</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -15685,7 +15780,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>46235</v>
+        <v>46113</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -15703,7 +15798,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>46266</v>
+        <v>46143</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -15721,7 +15816,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>46296</v>
+        <v>46174</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -15739,7 +15834,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>46327</v>
+        <v>46204</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -15757,7 +15852,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>46357</v>
+        <v>46235</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -15775,7 +15870,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>46388</v>
+        <v>46266</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -15793,7 +15888,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>46419</v>
+        <v>46296</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -15811,7 +15906,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>46447</v>
+        <v>46327</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -15829,7 +15924,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>46478</v>
+        <v>46357</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15847,7 +15942,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>46508</v>
+        <v>46388</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15865,7 +15960,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>46539</v>
+        <v>46419</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15883,7 +15978,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>46569</v>
+        <v>46447</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15901,7 +15996,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>46600</v>
+        <v>46478</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -15919,7 +16014,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>46631</v>
+        <v>46508</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -15934,6 +16029,78 @@
       <c r="I558" s="9"/>
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A559" s="40">
+        <v>46539</v>
+      </c>
+      <c r="B559" s="20"/>
+      <c r="C559" s="13"/>
+      <c r="D559" s="39"/>
+      <c r="E559" s="9"/>
+      <c r="F559" s="20"/>
+      <c r="G559" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H559" s="39"/>
+      <c r="I559" s="9"/>
+      <c r="J559" s="11"/>
+      <c r="K559" s="20"/>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A560" s="40">
+        <v>46569</v>
+      </c>
+      <c r="B560" s="20"/>
+      <c r="C560" s="13"/>
+      <c r="D560" s="39"/>
+      <c r="E560" s="9"/>
+      <c r="F560" s="20"/>
+      <c r="G560" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H560" s="39"/>
+      <c r="I560" s="9"/>
+      <c r="J560" s="11"/>
+      <c r="K560" s="20"/>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A561" s="40">
+        <v>46600</v>
+      </c>
+      <c r="B561" s="20"/>
+      <c r="C561" s="13"/>
+      <c r="D561" s="39"/>
+      <c r="E561" s="9"/>
+      <c r="F561" s="20"/>
+      <c r="G561" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H561" s="39"/>
+      <c r="I561" s="9"/>
+      <c r="J561" s="11"/>
+      <c r="K561" s="20"/>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A562" s="40">
+        <v>46631</v>
+      </c>
+      <c r="B562" s="20"/>
+      <c r="C562" s="13"/>
+      <c r="D562" s="39"/>
+      <c r="E562" s="9"/>
+      <c r="F562" s="20"/>
+      <c r="G562" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H562" s="39"/>
+      <c r="I562" s="9"/>
+      <c r="J562" s="11"/>
+      <c r="K562" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15981,7 +16148,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16047,14 +16214,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.14800000000000002</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -16077,6 +16244,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>367</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16098,6 +16268,10 @@
       <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>223.54000000000025</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>

--- a/REGULAR/CPDO/BAYOT, EMILIANA.xlsx
+++ b/REGULAR/CPDO/BAYOT, EMILIANA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="374">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1150,6 +1150,12 @@
   </si>
   <si>
     <t>10/23,24/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>1/2-4/2024</t>
   </si>
 </sst>
 </file>
@@ -2021,7 +2027,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,7 +2070,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2128,7 +2134,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2188,7 +2194,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2254,7 +2260,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2317,7 +2323,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2415,7 +2421,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2474,7 +2480,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2539,7 +2545,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2582,7 +2588,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2657,7 +2663,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2843,7 +2849,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2909,7 +2915,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2967,7 +2973,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3033,7 +3039,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3089,7 +3095,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3164,7 +3170,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3207,7 +3213,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3273,7 +3279,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3329,7 +3335,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3427,7 +3433,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3490,7 +3496,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3556,7 +3562,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K563" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K565" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3934,12 +3940,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K563"/>
+  <dimension ref="A2:K565"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A498" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="K516" sqref="K516"/>
+      <selection pane="bottomLeft" activeCell="K521" sqref="K521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4100,7 +4106,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>46.790000000000248</v>
+        <v>49.290000000000248</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4110,7 +4116,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>181.75</v>
+        <v>181.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15303,13 +15309,15 @@
         <v>45231</v>
       </c>
       <c r="B517" s="20"/>
-      <c r="C517" s="13"/>
+      <c r="C517" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D517" s="39"/>
       <c r="E517" s="9"/>
       <c r="F517" s="20"/>
-      <c r="G517" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G517" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H517" s="39"/>
       <c r="I517" s="9"/>
@@ -15321,13 +15329,15 @@
         <v>45261</v>
       </c>
       <c r="B518" s="20"/>
-      <c r="C518" s="13"/>
+      <c r="C518" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D518" s="39"/>
       <c r="E518" s="9"/>
       <c r="F518" s="20"/>
-      <c r="G518" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G518" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H518" s="39"/>
       <c r="I518" s="9"/>
@@ -15335,8 +15345,8 @@
       <c r="K518" s="20"/>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A519" s="40">
-        <v>45292</v>
+      <c r="A519" s="47" t="s">
+        <v>372</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15354,9 +15364,11 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B520" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B520" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="C520" s="13"/>
       <c r="D520" s="39"/>
       <c r="E520" s="9"/>
@@ -15365,16 +15377,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H520" s="39"/>
+      <c r="H520" s="39">
+        <v>3</v>
+      </c>
       <c r="I520" s="9"/>
       <c r="J520" s="11"/>
-      <c r="K520" s="20"/>
+      <c r="K520" s="20" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A521" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B521" s="20"/>
+      <c r="A521" s="40"/>
+      <c r="B521" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C521" s="13"/>
       <c r="D521" s="39"/>
       <c r="E521" s="9"/>
@@ -15386,11 +15402,13 @@
       <c r="H521" s="39"/>
       <c r="I521" s="9"/>
       <c r="J521" s="11"/>
-      <c r="K521" s="20"/>
+      <c r="K521" s="49">
+        <v>45296</v>
+      </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -15408,7 +15426,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15426,7 +15444,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -15444,7 +15462,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15462,7 +15480,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15480,7 +15498,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15498,7 +15516,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -15516,7 +15534,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -15534,7 +15552,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15552,7 +15570,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -15570,7 +15588,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -15588,7 +15606,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -15606,7 +15624,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -15624,7 +15642,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -15642,7 +15660,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -15660,7 +15678,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -15678,7 +15696,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -15696,7 +15714,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -15714,7 +15732,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15732,7 +15750,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -15750,25 +15768,25 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>45992</v>
-      </c>
-      <c r="B542" s="15"/>
-      <c r="C542" s="41"/>
-      <c r="D542" s="42"/>
+        <v>45931</v>
+      </c>
+      <c r="B542" s="20"/>
+      <c r="C542" s="13"/>
+      <c r="D542" s="39"/>
       <c r="E542" s="9"/>
-      <c r="F542" s="15"/>
-      <c r="G542" s="41" t="str">
+      <c r="F542" s="20"/>
+      <c r="G542" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H542" s="42"/>
+      <c r="H542" s="39"/>
       <c r="I542" s="9"/>
-      <c r="J542" s="12"/>
-      <c r="K542" s="15"/>
+      <c r="J542" s="11"/>
+      <c r="K542" s="20"/>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -15786,25 +15804,25 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>46054</v>
-      </c>
-      <c r="B544" s="20"/>
-      <c r="C544" s="13"/>
-      <c r="D544" s="39"/>
+        <v>45992</v>
+      </c>
+      <c r="B544" s="15"/>
+      <c r="C544" s="41"/>
+      <c r="D544" s="42"/>
       <c r="E544" s="9"/>
-      <c r="F544" s="20"/>
-      <c r="G544" s="13" t="str">
+      <c r="F544" s="15"/>
+      <c r="G544" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H544" s="39"/>
+      <c r="H544" s="42"/>
       <c r="I544" s="9"/>
-      <c r="J544" s="11"/>
-      <c r="K544" s="20"/>
+      <c r="J544" s="12"/>
+      <c r="K544" s="15"/>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -15822,7 +15840,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -15840,7 +15858,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -15858,7 +15876,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -15876,7 +15894,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -15894,7 +15912,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -15912,7 +15930,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -15930,7 +15948,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -15948,7 +15966,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15966,7 +15984,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15984,7 +16002,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -16002,7 +16020,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -16020,7 +16038,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -16038,7 +16056,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16056,7 +16074,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16074,7 +16092,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16092,7 +16110,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -16110,7 +16128,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -16128,7 +16146,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16143,6 +16161,42 @@
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A564" s="40">
+        <v>46600</v>
+      </c>
+      <c r="B564" s="20"/>
+      <c r="C564" s="13"/>
+      <c r="D564" s="39"/>
+      <c r="E564" s="9"/>
+      <c r="F564" s="20"/>
+      <c r="G564" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H564" s="39"/>
+      <c r="I564" s="9"/>
+      <c r="J564" s="11"/>
+      <c r="K564" s="20"/>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A565" s="40">
+        <v>46631</v>
+      </c>
+      <c r="B565" s="20"/>
+      <c r="C565" s="13"/>
+      <c r="D565" s="39"/>
+      <c r="E565" s="9"/>
+      <c r="F565" s="20"/>
+      <c r="G565" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H565" s="39"/>
+      <c r="I565" s="9"/>
+      <c r="J565" s="11"/>
+      <c r="K565" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16312,7 +16366,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>228.54000000000025</v>
+        <v>230.54000000000025</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CPDO/BAYOT, EMILIANA.xlsx
+++ b/REGULAR/CPDO/BAYOT, EMILIANA.xlsx
@@ -2027,7 +2027,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2070,7 +2070,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2134,7 +2134,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2194,7 +2194,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,7 +2260,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2323,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2421,7 +2421,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2480,7 +2480,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,7 +2545,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2588,7 +2588,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2663,7 +2663,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2849,7 +2849,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2915,7 +2915,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2973,7 +2973,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3039,7 +3039,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3095,7 +3095,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3170,7 +3170,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3213,7 +3213,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3279,7 +3279,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3335,7 +3335,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3433,7 +3433,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3496,7 +3496,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3945,7 +3945,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A498" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="K521" sqref="K521"/>
+      <selection pane="bottomLeft" activeCell="D518" sqref="D518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
